--- a/doc/ue_umg_animation.xlsx
+++ b/doc/ue_umg_animation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5E1D7-334F-4158-B457-1FE7BE6DC657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19653126-8434-44F4-9123-63606BB3B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="UMovieScene" sheetId="7" r:id="rId5"/>
     <sheet name="UUMGSequenceTickManager" sheetId="4" r:id="rId6"/>
     <sheet name="性能" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -530,6 +531,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>673989</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>46339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CC7970-8126-FD0F-46CD-08E220C18B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="76200"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177EA77E-D8B9-4521-B9CF-90F48F57C9A1}">
   <dimension ref="A3:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
@@ -1292,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88B385B-3BD2-4ECB-9DC3-A804E5558706}">
   <dimension ref="B3:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1720,4 +1770,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1268DEF-9807-49BA-B7D4-CF63DF78F8B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_umg_animation.xlsx
+++ b/doc/ue_umg_animation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19653126-8434-44F4-9123-63606BB3B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8090B-67C0-4681-8E8E-296D2BDBA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="UUMGSequenceTickManager" sheetId="4" r:id="rId6"/>
     <sheet name="性能" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="优化" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>UI动画的播放原理，尤其在蓝图里面播放的动画，一般都很耗时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +445,10 @@
   </si>
   <si>
     <t>设置暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在低端Android设备上，UMG的动画耗时比较大，基本在0.5毫秒以内，还都是占用的GameThread，要是有多个就会多个耗时，怎么优化呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1268DEF-9807-49BA-B7D4-CF63DF78F8B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1787,4 +1792,26 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98F86DA-3E1D-48B0-8922-9742D71C4779}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>